--- a/production_recipe_management_tool_v1.1/data/Recipes/2900_pieces_Chicken Semi Premium Momo 25 Gm.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/2900_pieces_Chicken Semi Premium Momo 25 Gm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db716023529416d8/Documents/GitHub/production_recipe_management_tool/production_recipe_management_tool_v1.1/data/Recipes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A211357E-9568-45A4-BDD0-E792F653BB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A211357E-9568-45A4-BDD0-E792F653BB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59E349EB-9202-487E-9571-40EB576AAF15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,12 +705,12 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <f>(150/1000)/3</f>
-        <v>4.9999999999999996E-2</v>
+        <f>G8</f>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <f>B3*D3</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2"/>
     </row>
